--- a/ML Result.xlsx
+++ b/ML Result.xlsx
@@ -495,19 +495,19 @@
         <v>14</v>
       </c>
       <c r="D2">
-        <v>35.9331</v>
+        <v>33.1867</v>
       </c>
       <c r="E2">
-        <v>18741</v>
+        <v>18744</v>
       </c>
       <c r="F2">
-        <v>310170</v>
+        <v>310168</v>
       </c>
       <c r="G2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="H2">
-        <v>20398</v>
+        <v>20395</v>
       </c>
       <c r="I2">
         <v>0.9405</v>
@@ -536,10 +536,10 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>35.9331</v>
+        <v>33.1867</v>
       </c>
       <c r="E3">
-        <v>6239</v>
+        <v>6240</v>
       </c>
       <c r="F3">
         <v>103410</v>
@@ -548,13 +548,13 @@
         <v>115</v>
       </c>
       <c r="H3">
-        <v>6808</v>
+        <v>6807</v>
       </c>
       <c r="I3">
         <v>0.9406</v>
       </c>
       <c r="J3">
-        <v>0.7385</v>
+        <v>0.7386</v>
       </c>
       <c r="K3">
         <v>0.9601</v>
@@ -577,31 +577,31 @@
         <v>15</v>
       </c>
       <c r="D4">
-        <v>2.7696</v>
+        <v>2.3438</v>
       </c>
       <c r="E4">
-        <v>37704</v>
+        <v>37712</v>
       </c>
       <c r="F4">
-        <v>310564</v>
+        <v>310568</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H4">
-        <v>1435</v>
+        <v>1427</v>
       </c>
       <c r="I4">
         <v>0.9959</v>
       </c>
       <c r="J4">
-        <v>0.9817</v>
+        <v>0.9818</v>
       </c>
       <c r="K4">
         <v>0.9976</v>
       </c>
       <c r="L4">
-        <v>0.9893999999999999</v>
+        <v>0.9895</v>
       </c>
       <c r="M4" t="s">
         <v>19</v>
@@ -618,28 +618,28 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>2.7696</v>
+        <v>2.3438</v>
       </c>
       <c r="E5">
-        <v>12404</v>
+        <v>12399</v>
       </c>
       <c r="F5">
-        <v>103477</v>
+        <v>103482</v>
       </c>
       <c r="G5">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H5">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="I5">
         <v>0.9941</v>
       </c>
       <c r="J5">
-        <v>0.9751</v>
+        <v>0.975</v>
       </c>
       <c r="K5">
-        <v>0.995</v>
+        <v>0.9952</v>
       </c>
       <c r="L5">
         <v>0.9848</v>
@@ -659,31 +659,31 @@
         <v>16</v>
       </c>
       <c r="D6">
-        <v>2.8496</v>
+        <v>3.0319</v>
       </c>
       <c r="E6">
-        <v>37142</v>
+        <v>37127</v>
       </c>
       <c r="F6">
-        <v>310535</v>
+        <v>310527</v>
       </c>
       <c r="G6">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H6">
-        <v>1997</v>
+        <v>2012</v>
       </c>
       <c r="I6">
-        <v>0.9942</v>
+        <v>0.9941</v>
       </c>
       <c r="J6">
-        <v>0.9744</v>
+        <v>0.9742</v>
       </c>
       <c r="K6">
-        <v>0.9963</v>
+        <v>0.9961</v>
       </c>
       <c r="L6">
-        <v>0.985</v>
+        <v>0.9849</v>
       </c>
       <c r="M6" t="s">
         <v>19</v>
@@ -700,31 +700,31 @@
         <v>16</v>
       </c>
       <c r="D7">
-        <v>2.8496</v>
+        <v>3.0319</v>
       </c>
       <c r="E7">
-        <v>12343</v>
+        <v>12350</v>
       </c>
       <c r="F7">
-        <v>103486</v>
+        <v>103471</v>
       </c>
       <c r="G7">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="H7">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="I7">
         <v>0.9936</v>
       </c>
       <c r="J7">
-        <v>0.9728</v>
+        <v>0.973</v>
       </c>
       <c r="K7">
-        <v>0.995</v>
+        <v>0.9945000000000001</v>
       </c>
       <c r="L7">
-        <v>0.9836</v>
+        <v>0.9834000000000001</v>
       </c>
       <c r="M7" t="s">
         <v>19</v>
@@ -741,7 +741,7 @@
         <v>17</v>
       </c>
       <c r="D8">
-        <v>152.8003</v>
+        <v>146.2716</v>
       </c>
       <c r="E8">
         <v>33770</v>
@@ -782,7 +782,7 @@
         <v>17</v>
       </c>
       <c r="D9">
-        <v>152.8003</v>
+        <v>146.2716</v>
       </c>
       <c r="E9">
         <v>11317</v>
@@ -823,31 +823,31 @@
         <v>18</v>
       </c>
       <c r="D10">
-        <v>0.4591</v>
+        <v>0.3708</v>
       </c>
       <c r="E10">
-        <v>19683</v>
+        <v>19679</v>
       </c>
       <c r="F10">
-        <v>308754</v>
+        <v>308742</v>
       </c>
       <c r="G10">
-        <v>1820</v>
+        <v>1832</v>
       </c>
       <c r="H10">
-        <v>19456</v>
+        <v>19460</v>
       </c>
       <c r="I10">
-        <v>0.9392</v>
+        <v>0.9391</v>
       </c>
       <c r="J10">
-        <v>0.7485000000000001</v>
+        <v>0.7484</v>
       </c>
       <c r="K10">
-        <v>0.928</v>
+        <v>0.9278</v>
       </c>
       <c r="L10">
-        <v>0.8079</v>
+        <v>0.8078</v>
       </c>
       <c r="M10" t="s">
         <v>19</v>
@@ -864,19 +864,19 @@
         <v>18</v>
       </c>
       <c r="D11">
-        <v>0.4591</v>
+        <v>0.3708</v>
       </c>
       <c r="E11">
-        <v>6548</v>
+        <v>6547</v>
       </c>
       <c r="F11">
-        <v>102942</v>
+        <v>102941</v>
       </c>
       <c r="G11">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H11">
-        <v>6499</v>
+        <v>6500</v>
       </c>
       <c r="I11">
         <v>0.9392</v>
@@ -888,7 +888,7 @@
         <v>0.9294</v>
       </c>
       <c r="L11">
-        <v>0.8079</v>
+        <v>0.8078</v>
       </c>
       <c r="M11" t="s">
         <v>19</v>
@@ -905,31 +905,31 @@
         <v>14</v>
       </c>
       <c r="D12">
-        <v>32.2091</v>
+        <v>30.6775</v>
       </c>
       <c r="E12">
-        <v>18637</v>
+        <v>18636</v>
       </c>
       <c r="F12">
-        <v>310134</v>
+        <v>310119</v>
       </c>
       <c r="G12">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="H12">
-        <v>20502</v>
+        <v>20503</v>
       </c>
       <c r="I12">
         <v>0.9401</v>
       </c>
       <c r="J12">
-        <v>0.7374000000000001</v>
+        <v>0.7373</v>
       </c>
       <c r="K12">
-        <v>0.9575</v>
+        <v>0.9571</v>
       </c>
       <c r="L12">
-        <v>0.8038</v>
+        <v>0.8037</v>
       </c>
       <c r="M12" t="s">
         <v>20</v>
@@ -946,31 +946,31 @@
         <v>14</v>
       </c>
       <c r="D13">
-        <v>32.2091</v>
+        <v>30.6775</v>
       </c>
       <c r="E13">
-        <v>6205</v>
+        <v>6210</v>
       </c>
       <c r="F13">
-        <v>103399</v>
+        <v>103394</v>
       </c>
       <c r="G13">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="H13">
-        <v>6842</v>
+        <v>6837</v>
       </c>
       <c r="I13">
         <v>0.9402</v>
       </c>
       <c r="J13">
-        <v>0.7372</v>
+        <v>0.7374000000000001</v>
       </c>
       <c r="K13">
-        <v>0.959</v>
+        <v>0.9587</v>
       </c>
       <c r="L13">
-        <v>0.8038999999999999</v>
+        <v>0.804</v>
       </c>
       <c r="M13" t="s">
         <v>20</v>
@@ -987,31 +987,31 @@
         <v>15</v>
       </c>
       <c r="D14">
-        <v>2.4025</v>
+        <v>2.5827</v>
       </c>
       <c r="E14">
-        <v>37739</v>
+        <v>37667</v>
       </c>
       <c r="F14">
-        <v>310568</v>
+        <v>310562</v>
       </c>
       <c r="G14">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H14">
-        <v>1400</v>
+        <v>1472</v>
       </c>
       <c r="I14">
-        <v>0.996</v>
+        <v>0.9958</v>
       </c>
       <c r="J14">
-        <v>0.9821</v>
+        <v>0.9812</v>
       </c>
       <c r="K14">
-        <v>0.9977</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="L14">
-        <v>0.9897</v>
+        <v>0.9891</v>
       </c>
       <c r="M14" t="s">
         <v>20</v>
@@ -1028,10 +1028,10 @@
         <v>15</v>
       </c>
       <c r="D15">
-        <v>2.4025</v>
+        <v>2.5827</v>
       </c>
       <c r="E15">
-        <v>12398</v>
+        <v>12387</v>
       </c>
       <c r="F15">
         <v>103481</v>
@@ -1040,19 +1040,19 @@
         <v>44</v>
       </c>
       <c r="H15">
-        <v>649</v>
+        <v>660</v>
       </c>
       <c r="I15">
-        <v>0.9941</v>
+        <v>0.994</v>
       </c>
       <c r="J15">
-        <v>0.9749</v>
+        <v>0.9745</v>
       </c>
       <c r="K15">
         <v>0.9951</v>
       </c>
       <c r="L15">
-        <v>0.9847</v>
+        <v>0.9845</v>
       </c>
       <c r="M15" t="s">
         <v>20</v>
@@ -1069,31 +1069,31 @@
         <v>16</v>
       </c>
       <c r="D16">
-        <v>2.5136</v>
+        <v>2.8487</v>
       </c>
       <c r="E16">
-        <v>37148</v>
+        <v>37050</v>
       </c>
       <c r="F16">
-        <v>310536</v>
+        <v>310507</v>
       </c>
       <c r="G16">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="H16">
-        <v>1991</v>
+        <v>2089</v>
       </c>
       <c r="I16">
-        <v>0.9942</v>
+        <v>0.9938</v>
       </c>
       <c r="J16">
-        <v>0.9745</v>
+        <v>0.9732</v>
       </c>
       <c r="K16">
-        <v>0.9963</v>
+        <v>0.9958</v>
       </c>
       <c r="L16">
-        <v>0.9851</v>
+        <v>0.9841</v>
       </c>
       <c r="M16" t="s">
         <v>20</v>
@@ -1110,31 +1110,31 @@
         <v>16</v>
       </c>
       <c r="D17">
-        <v>2.5136</v>
+        <v>2.8487</v>
       </c>
       <c r="E17">
-        <v>12350</v>
+        <v>12326</v>
       </c>
       <c r="F17">
-        <v>103487</v>
+        <v>103459</v>
       </c>
       <c r="G17">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="H17">
-        <v>697</v>
+        <v>721</v>
       </c>
       <c r="I17">
-        <v>0.9937</v>
+        <v>0.9932</v>
       </c>
       <c r="J17">
-        <v>0.9731</v>
+        <v>0.9721</v>
       </c>
       <c r="K17">
-        <v>0.9951</v>
+        <v>0.9939</v>
       </c>
       <c r="L17">
-        <v>0.9838</v>
+        <v>0.9826</v>
       </c>
       <c r="M17" t="s">
         <v>20</v>
@@ -1151,31 +1151,31 @@
         <v>17</v>
       </c>
       <c r="D18">
-        <v>120.088</v>
+        <v>114.1797</v>
       </c>
       <c r="E18">
-        <v>32826</v>
+        <v>33663</v>
       </c>
       <c r="F18">
-        <v>310333</v>
+        <v>310237</v>
       </c>
       <c r="G18">
-        <v>241</v>
+        <v>337</v>
       </c>
       <c r="H18">
-        <v>6313</v>
+        <v>5476</v>
       </c>
       <c r="I18">
-        <v>0.9813</v>
+        <v>0.9834000000000001</v>
       </c>
       <c r="J18">
-        <v>0.919</v>
+        <v>0.9295</v>
       </c>
       <c r="K18">
         <v>0.9864000000000001</v>
       </c>
       <c r="L18">
-        <v>0.9494</v>
+        <v>0.9556</v>
       </c>
       <c r="M18" t="s">
         <v>20</v>
@@ -1192,31 +1192,31 @@
         <v>17</v>
       </c>
       <c r="D19">
-        <v>120.088</v>
+        <v>114.1797</v>
       </c>
       <c r="E19">
-        <v>11003</v>
+        <v>11273</v>
       </c>
       <c r="F19">
-        <v>103439</v>
+        <v>103408</v>
       </c>
       <c r="G19">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="H19">
-        <v>2044</v>
+        <v>1774</v>
       </c>
       <c r="I19">
-        <v>0.9817</v>
+        <v>0.9838</v>
       </c>
       <c r="J19">
-        <v>0.9213</v>
+        <v>0.9314</v>
       </c>
       <c r="K19">
         <v>0.9864000000000001</v>
       </c>
       <c r="L19">
-        <v>0.9508</v>
+        <v>0.9568</v>
       </c>
       <c r="M19" t="s">
         <v>20</v>
@@ -1233,31 +1233,31 @@
         <v>18</v>
       </c>
       <c r="D20">
-        <v>0.3861</v>
+        <v>0.2901</v>
       </c>
       <c r="E20">
-        <v>19658</v>
+        <v>19656</v>
       </c>
       <c r="F20">
-        <v>308666</v>
+        <v>308653</v>
       </c>
       <c r="G20">
-        <v>1908</v>
+        <v>1921</v>
       </c>
       <c r="H20">
-        <v>19481</v>
+        <v>19483</v>
       </c>
       <c r="I20">
         <v>0.9388</v>
       </c>
       <c r="J20">
-        <v>0.7481</v>
+        <v>0.748</v>
       </c>
       <c r="K20">
-        <v>0.9261</v>
+        <v>0.9258</v>
       </c>
       <c r="L20">
-        <v>0.8071</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="M20" t="s">
         <v>20</v>
@@ -1274,16 +1274,16 @@
         <v>18</v>
       </c>
       <c r="D21">
-        <v>0.3861</v>
+        <v>0.2901</v>
       </c>
       <c r="E21">
         <v>6544</v>
       </c>
       <c r="F21">
-        <v>102917</v>
+        <v>102913</v>
       </c>
       <c r="G21">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="H21">
         <v>6503</v>
@@ -1295,10 +1295,10 @@
         <v>0.7478</v>
       </c>
       <c r="K21">
-        <v>0.9278</v>
+        <v>0.9275</v>
       </c>
       <c r="L21">
-        <v>0.8073</v>
+        <v>0.8072</v>
       </c>
       <c r="M21" t="s">
         <v>20</v>
@@ -1315,19 +1315,19 @@
         <v>14</v>
       </c>
       <c r="D22">
-        <v>32.0427</v>
+        <v>29.0753</v>
       </c>
       <c r="E22">
-        <v>18641</v>
+        <v>18638</v>
       </c>
       <c r="F22">
-        <v>310139</v>
+        <v>310124</v>
       </c>
       <c r="G22">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="H22">
-        <v>20498</v>
+        <v>20501</v>
       </c>
       <c r="I22">
         <v>0.9401</v>
@@ -1336,10 +1336,10 @@
         <v>0.7374000000000001</v>
       </c>
       <c r="K22">
-        <v>0.9576</v>
+        <v>0.9572000000000001</v>
       </c>
       <c r="L22">
-        <v>0.8038999999999999</v>
+        <v>0.8038</v>
       </c>
       <c r="M22" t="s">
         <v>21</v>
@@ -1356,31 +1356,31 @@
         <v>14</v>
       </c>
       <c r="D23">
-        <v>32.0427</v>
+        <v>29.0753</v>
       </c>
       <c r="E23">
-        <v>6205</v>
+        <v>6209</v>
       </c>
       <c r="F23">
-        <v>103399</v>
+        <v>103394</v>
       </c>
       <c r="G23">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="H23">
-        <v>6842</v>
+        <v>6838</v>
       </c>
       <c r="I23">
         <v>0.9402</v>
       </c>
       <c r="J23">
-        <v>0.7372</v>
+        <v>0.7373</v>
       </c>
       <c r="K23">
-        <v>0.959</v>
+        <v>0.9587</v>
       </c>
       <c r="L23">
-        <v>0.8038999999999999</v>
+        <v>0.804</v>
       </c>
       <c r="M23" t="s">
         <v>21</v>
@@ -1397,31 +1397,31 @@
         <v>15</v>
       </c>
       <c r="D24">
-        <v>2.3435</v>
+        <v>2.652</v>
       </c>
       <c r="E24">
-        <v>37712</v>
+        <v>37671</v>
       </c>
       <c r="F24">
-        <v>310564</v>
+        <v>310562</v>
       </c>
       <c r="G24">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H24">
-        <v>1427</v>
+        <v>1468</v>
       </c>
       <c r="I24">
-        <v>0.9959</v>
+        <v>0.9958</v>
       </c>
       <c r="J24">
-        <v>0.9818</v>
+        <v>0.9812</v>
       </c>
       <c r="K24">
-        <v>0.9976</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="L24">
-        <v>0.9895</v>
+        <v>0.9892</v>
       </c>
       <c r="M24" t="s">
         <v>21</v>
@@ -1438,31 +1438,31 @@
         <v>15</v>
       </c>
       <c r="D25">
-        <v>2.3435</v>
+        <v>2.652</v>
       </c>
       <c r="E25">
-        <v>12409</v>
+        <v>12379</v>
       </c>
       <c r="F25">
-        <v>103484</v>
+        <v>103480</v>
       </c>
       <c r="G25">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H25">
-        <v>638</v>
+        <v>668</v>
       </c>
       <c r="I25">
-        <v>0.9942</v>
+        <v>0.9939</v>
       </c>
       <c r="J25">
-        <v>0.9754</v>
+        <v>0.9742</v>
       </c>
       <c r="K25">
-        <v>0.9953</v>
+        <v>0.995</v>
       </c>
       <c r="L25">
-        <v>0.985</v>
+        <v>0.9843</v>
       </c>
       <c r="M25" t="s">
         <v>21</v>
@@ -1479,31 +1479,31 @@
         <v>16</v>
       </c>
       <c r="D26">
-        <v>2.4305</v>
+        <v>2.107</v>
       </c>
       <c r="E26">
-        <v>37144</v>
+        <v>37059</v>
       </c>
       <c r="F26">
-        <v>310529</v>
+        <v>310521</v>
       </c>
       <c r="G26">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H26">
-        <v>1995</v>
+        <v>2080</v>
       </c>
       <c r="I26">
-        <v>0.9942</v>
+        <v>0.9939</v>
       </c>
       <c r="J26">
-        <v>0.9744</v>
+        <v>0.9733000000000001</v>
       </c>
       <c r="K26">
-        <v>0.9962</v>
+        <v>0.996</v>
       </c>
       <c r="L26">
-        <v>0.985</v>
+        <v>0.9843</v>
       </c>
       <c r="M26" t="s">
         <v>21</v>
@@ -1520,31 +1520,31 @@
         <v>16</v>
       </c>
       <c r="D27">
-        <v>2.4305</v>
+        <v>2.107</v>
       </c>
       <c r="E27">
-        <v>12351</v>
+        <v>12321</v>
       </c>
       <c r="F27">
-        <v>103485</v>
+        <v>103440</v>
       </c>
       <c r="G27">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="H27">
-        <v>696</v>
+        <v>726</v>
       </c>
       <c r="I27">
-        <v>0.9937</v>
+        <v>0.993</v>
       </c>
       <c r="J27">
-        <v>0.9731</v>
+        <v>0.9718</v>
       </c>
       <c r="K27">
-        <v>0.995</v>
+        <v>0.9931</v>
       </c>
       <c r="L27">
-        <v>0.9838</v>
+        <v>0.9821</v>
       </c>
       <c r="M27" t="s">
         <v>21</v>
@@ -1561,31 +1561,31 @@
         <v>17</v>
       </c>
       <c r="D28">
-        <v>118.0045</v>
+        <v>103.5288</v>
       </c>
       <c r="E28">
-        <v>32826</v>
+        <v>33663</v>
       </c>
       <c r="F28">
-        <v>310333</v>
+        <v>310237</v>
       </c>
       <c r="G28">
-        <v>241</v>
+        <v>337</v>
       </c>
       <c r="H28">
-        <v>6313</v>
+        <v>5476</v>
       </c>
       <c r="I28">
-        <v>0.9813</v>
+        <v>0.9834000000000001</v>
       </c>
       <c r="J28">
-        <v>0.919</v>
+        <v>0.9295</v>
       </c>
       <c r="K28">
         <v>0.9864000000000001</v>
       </c>
       <c r="L28">
-        <v>0.9494</v>
+        <v>0.9556</v>
       </c>
       <c r="M28" t="s">
         <v>21</v>
@@ -1602,31 +1602,31 @@
         <v>17</v>
       </c>
       <c r="D29">
-        <v>118.0045</v>
+        <v>103.5288</v>
       </c>
       <c r="E29">
-        <v>11003</v>
+        <v>11273</v>
       </c>
       <c r="F29">
-        <v>103439</v>
+        <v>103408</v>
       </c>
       <c r="G29">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="H29">
-        <v>2044</v>
+        <v>1774</v>
       </c>
       <c r="I29">
-        <v>0.9817</v>
+        <v>0.9838</v>
       </c>
       <c r="J29">
-        <v>0.9213</v>
+        <v>0.9314</v>
       </c>
       <c r="K29">
         <v>0.9864000000000001</v>
       </c>
       <c r="L29">
-        <v>0.9508</v>
+        <v>0.9568</v>
       </c>
       <c r="M29" t="s">
         <v>21</v>
@@ -1643,31 +1643,31 @@
         <v>18</v>
       </c>
       <c r="D30">
-        <v>0.3381</v>
+        <v>0.2722</v>
       </c>
       <c r="E30">
-        <v>20370</v>
+        <v>20364</v>
       </c>
       <c r="F30">
-        <v>307193</v>
+        <v>307189</v>
       </c>
       <c r="G30">
-        <v>3381</v>
+        <v>3385</v>
       </c>
       <c r="H30">
-        <v>18769</v>
+        <v>18775</v>
       </c>
       <c r="I30">
-        <v>0.9367</v>
+        <v>0.9366</v>
       </c>
       <c r="J30">
-        <v>0.7548</v>
+        <v>0.7547</v>
       </c>
       <c r="K30">
-        <v>0.9</v>
+        <v>0.8999</v>
       </c>
       <c r="L30">
-        <v>0.8065</v>
+        <v>0.8064</v>
       </c>
       <c r="M30" t="s">
         <v>21</v>
@@ -1684,31 +1684,31 @@
         <v>18</v>
       </c>
       <c r="D31">
-        <v>0.3381</v>
+        <v>0.2722</v>
       </c>
       <c r="E31">
-        <v>6805</v>
+        <v>6801</v>
       </c>
       <c r="F31">
-        <v>102452</v>
+        <v>102451</v>
       </c>
       <c r="G31">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="H31">
-        <v>6242</v>
+        <v>6246</v>
       </c>
       <c r="I31">
         <v>0.9372</v>
       </c>
       <c r="J31">
-        <v>0.7556</v>
+        <v>0.7554</v>
       </c>
       <c r="K31">
-        <v>0.9032</v>
+        <v>0.9031</v>
       </c>
       <c r="L31">
-        <v>0.8080000000000001</v>
+        <v>0.8078</v>
       </c>
       <c r="M31" t="s">
         <v>21</v>
@@ -1725,31 +1725,31 @@
         <v>14</v>
       </c>
       <c r="D32">
-        <v>32.4621</v>
+        <v>27.7492</v>
       </c>
       <c r="E32">
-        <v>18557</v>
+        <v>18548</v>
       </c>
       <c r="F32">
-        <v>310106</v>
+        <v>310091</v>
       </c>
       <c r="G32">
-        <v>468</v>
+        <v>483</v>
       </c>
       <c r="H32">
-        <v>20582</v>
+        <v>20591</v>
       </c>
       <c r="I32">
-        <v>0.9398</v>
+        <v>0.9397</v>
       </c>
       <c r="J32">
-        <v>0.7363</v>
+        <v>0.7362</v>
       </c>
       <c r="K32">
-        <v>0.9566</v>
+        <v>0.9562</v>
       </c>
       <c r="L32">
-        <v>0.8026</v>
+        <v>0.8024</v>
       </c>
       <c r="M32" t="s">
         <v>22</v>
@@ -1766,19 +1766,19 @@
         <v>14</v>
       </c>
       <c r="D33">
-        <v>32.4621</v>
+        <v>27.7492</v>
       </c>
       <c r="E33">
-        <v>6187</v>
+        <v>6186</v>
       </c>
       <c r="F33">
-        <v>103384</v>
+        <v>103382</v>
       </c>
       <c r="G33">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H33">
-        <v>6860</v>
+        <v>6861</v>
       </c>
       <c r="I33">
         <v>0.9399</v>
@@ -1787,10 +1787,10 @@
         <v>0.7364000000000001</v>
       </c>
       <c r="K33">
-        <v>0.9577</v>
+        <v>0.9576</v>
       </c>
       <c r="L33">
-        <v>0.803</v>
+        <v>0.8028999999999999</v>
       </c>
       <c r="M33" t="s">
         <v>22</v>
@@ -1807,31 +1807,31 @@
         <v>15</v>
       </c>
       <c r="D34">
-        <v>2.3775</v>
+        <v>2.8077</v>
       </c>
       <c r="E34">
-        <v>37647</v>
+        <v>37398</v>
       </c>
       <c r="F34">
-        <v>310564</v>
+        <v>310567</v>
       </c>
       <c r="G34">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H34">
-        <v>1492</v>
+        <v>1741</v>
       </c>
       <c r="I34">
-        <v>0.9957</v>
+        <v>0.995</v>
       </c>
       <c r="J34">
-        <v>0.9809</v>
+        <v>0.9777</v>
       </c>
       <c r="K34">
-        <v>0.9975000000000001</v>
+        <v>0.9971</v>
       </c>
       <c r="L34">
-        <v>0.989</v>
+        <v>0.9872</v>
       </c>
       <c r="M34" t="s">
         <v>22</v>
@@ -1848,31 +1848,31 @@
         <v>15</v>
       </c>
       <c r="D35">
-        <v>2.3775</v>
+        <v>2.8077</v>
       </c>
       <c r="E35">
-        <v>12372</v>
+        <v>12301</v>
       </c>
       <c r="F35">
-        <v>103483</v>
+        <v>103470</v>
       </c>
       <c r="G35">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="H35">
-        <v>675</v>
+        <v>746</v>
       </c>
       <c r="I35">
-        <v>0.9938</v>
+        <v>0.9931</v>
       </c>
       <c r="J35">
-        <v>0.9739</v>
+        <v>0.9711</v>
       </c>
       <c r="K35">
-        <v>0.9951</v>
+        <v>0.9942</v>
       </c>
       <c r="L35">
-        <v>0.9842</v>
+        <v>0.9823</v>
       </c>
       <c r="M35" t="s">
         <v>22</v>
@@ -1889,31 +1889,31 @@
         <v>16</v>
       </c>
       <c r="D36">
-        <v>2.2265</v>
+        <v>3.3875</v>
       </c>
       <c r="E36">
-        <v>37064</v>
+        <v>36765</v>
       </c>
       <c r="F36">
-        <v>310532</v>
+        <v>310503</v>
       </c>
       <c r="G36">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="H36">
-        <v>2075</v>
+        <v>2374</v>
       </c>
       <c r="I36">
-        <v>0.9939</v>
+        <v>0.993</v>
       </c>
       <c r="J36">
-        <v>0.9734</v>
+        <v>0.9696</v>
       </c>
       <c r="K36">
-        <v>0.9961</v>
+        <v>0.9952</v>
       </c>
       <c r="L36">
-        <v>0.9844000000000001</v>
+        <v>0.9819</v>
       </c>
       <c r="M36" t="s">
         <v>22</v>
@@ -1930,31 +1930,31 @@
         <v>16</v>
       </c>
       <c r="D37">
-        <v>2.2265</v>
+        <v>3.3875</v>
       </c>
       <c r="E37">
-        <v>12343</v>
+        <v>12241</v>
       </c>
       <c r="F37">
-        <v>103482</v>
+        <v>103467</v>
       </c>
       <c r="G37">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="H37">
-        <v>704</v>
+        <v>806</v>
       </c>
       <c r="I37">
-        <v>0.9936</v>
+        <v>0.9926</v>
       </c>
       <c r="J37">
-        <v>0.9728</v>
+        <v>0.9688</v>
       </c>
       <c r="K37">
-        <v>0.9949</v>
+        <v>0.9938</v>
       </c>
       <c r="L37">
-        <v>0.9835</v>
+        <v>0.9809</v>
       </c>
       <c r="M37" t="s">
         <v>22</v>
@@ -1971,31 +1971,31 @@
         <v>17</v>
       </c>
       <c r="D38">
-        <v>109.7532</v>
+        <v>104.3146</v>
       </c>
       <c r="E38">
-        <v>29963</v>
+        <v>29230</v>
       </c>
       <c r="F38">
-        <v>310414</v>
+        <v>310206</v>
       </c>
       <c r="G38">
-        <v>160</v>
+        <v>368</v>
       </c>
       <c r="H38">
-        <v>9176</v>
+        <v>9909</v>
       </c>
       <c r="I38">
-        <v>0.9733000000000001</v>
+        <v>0.9706</v>
       </c>
       <c r="J38">
-        <v>0.8825</v>
+        <v>0.8728</v>
       </c>
       <c r="K38">
-        <v>0.983</v>
+        <v>0.9782999999999999</v>
       </c>
       <c r="L38">
-        <v>0.9252</v>
+        <v>0.9171</v>
       </c>
       <c r="M38" t="s">
         <v>22</v>
@@ -2012,31 +2012,31 @@
         <v>17</v>
       </c>
       <c r="D39">
-        <v>109.7532</v>
+        <v>104.3146</v>
       </c>
       <c r="E39">
-        <v>10020</v>
+        <v>9755</v>
       </c>
       <c r="F39">
-        <v>103456</v>
+        <v>103389</v>
       </c>
       <c r="G39">
-        <v>69</v>
+        <v>136</v>
       </c>
       <c r="H39">
-        <v>3027</v>
+        <v>3292</v>
       </c>
       <c r="I39">
-        <v>0.9734</v>
+        <v>0.9706</v>
       </c>
       <c r="J39">
-        <v>0.8837</v>
+        <v>0.8732</v>
       </c>
       <c r="K39">
-        <v>0.9824000000000001</v>
+        <v>0.9777</v>
       </c>
       <c r="L39">
-        <v>0.9257</v>
+        <v>0.9171</v>
       </c>
       <c r="M39" t="s">
         <v>22</v>
@@ -2053,19 +2053,19 @@
         <v>18</v>
       </c>
       <c r="D40">
-        <v>0.2871</v>
+        <v>0.3881</v>
       </c>
       <c r="E40">
-        <v>20137</v>
+        <v>20139</v>
       </c>
       <c r="F40">
-        <v>307194</v>
+        <v>307179</v>
       </c>
       <c r="G40">
-        <v>3380</v>
+        <v>3395</v>
       </c>
       <c r="H40">
-        <v>19002</v>
+        <v>19000</v>
       </c>
       <c r="I40">
         <v>0.9360000000000001</v>
@@ -2074,10 +2074,10 @@
         <v>0.7518</v>
       </c>
       <c r="K40">
-        <v>0.899</v>
+        <v>0.8987000000000001</v>
       </c>
       <c r="L40">
-        <v>0.8038</v>
+        <v>0.8037</v>
       </c>
       <c r="M40" t="s">
         <v>22</v>
@@ -2094,31 +2094,31 @@
         <v>18</v>
       </c>
       <c r="D41">
-        <v>0.2871</v>
+        <v>0.3881</v>
       </c>
       <c r="E41">
-        <v>6721</v>
+        <v>6722</v>
       </c>
       <c r="F41">
-        <v>102448</v>
+        <v>102436</v>
       </c>
       <c r="G41">
-        <v>1077</v>
+        <v>1089</v>
       </c>
       <c r="H41">
-        <v>6326</v>
+        <v>6325</v>
       </c>
       <c r="I41">
-        <v>0.9365</v>
+        <v>0.9364</v>
       </c>
       <c r="J41">
-        <v>0.7524</v>
+        <v>0.7523</v>
       </c>
       <c r="K41">
-        <v>0.9019</v>
+        <v>0.9012</v>
       </c>
       <c r="L41">
-        <v>0.805</v>
+        <v>0.8048</v>
       </c>
       <c r="M41" t="s">
         <v>22</v>
